--- a/NeuralNetworkTutorial/search_coeff.xlsx
+++ b/NeuralNetworkTutorial/search_coeff.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\MyWork\GeekBrains\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\MyWork\IT_School\NeuralNetworks\TestNeuralNetwork\NeuralNetworkTutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FA5BD6-A025-4A53-8100-D89F7CE5A998}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD8028-43ED-460E-A837-2936235F2564}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{3A54C3C3-00AC-4199-8ED9-FC1849EF8D3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>мили = километры * K</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>Предпологаемый коэффициент</t>
+  </si>
+  <si>
+    <t>100*0,62131 = 62,131</t>
+  </si>
+  <si>
+    <t>ошибка = 62,137 - 62,131= 0,006</t>
+  </si>
+  <si>
+    <t>100*0,62132 = 62,132</t>
+  </si>
+  <si>
+    <t>ошибка = 62,137 - 62,132= 0,005</t>
   </si>
 </sst>
 </file>
@@ -515,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A3158-E433-4B44-A455-9A5BD8D8F850}">
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,6 +739,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/NeuralNetworkTutorial/search_coeff.xlsx
+++ b/NeuralNetworkTutorial/search_coeff.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\MyWork\IT_School\NeuralNetworks\TestNeuralNetwork\NeuralNetworkTutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD8028-43ED-460E-A837-2936235F2564}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F4CB3E-BDDA-4FAF-B465-10F6CAAB8452}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{3A54C3C3-00AC-4199-8ED9-FC1849EF8D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>мили = километры * K</t>
   </si>
@@ -169,6 +170,33 @@
   </si>
   <si>
     <t>ошибка = 62,137 - 62,132= 0,005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мили </t>
+  </si>
+  <si>
+    <t>километры</t>
+  </si>
+  <si>
+    <t>истинное значение коэффициента</t>
+  </si>
+  <si>
+    <t>экспериментальное значение коэфициента</t>
+  </si>
+  <si>
+    <t>ошибка вычисления коэффициента</t>
+  </si>
+  <si>
+    <t>шаг вычисления экспериментального значения коэффициента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">начальное </t>
+  </si>
+  <si>
+    <t>вычисляемое</t>
+  </si>
+  <si>
+    <t>алгоритм расчета коэффициента</t>
   </si>
 </sst>
 </file>
@@ -529,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A3158-E433-4B44-A455-9A5BD8D8F850}">
   <dimension ref="A2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,4 +787,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C88EA6C-321D-44C3-AE62-B60472D2BE24}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>